--- a/aichan/545371524159647541_2021-07-09_16-00-03.xlsx
+++ b/aichan/545371524159647541_2021-07-09_16-00-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:36:45</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44396.48385416667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>4873337457</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:07:58</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44391.08886574074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>4876014271</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:58:28</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44390.74893518518</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -752,10 +762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:39:44</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44390.56925925926</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>4873387442</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:45:47</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44390.40679398148</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-12 08:22:21</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44389.34885416667</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -987,10 +991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:23:33</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44388.51635416667</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -1054,10 +1056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:34:33</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44388.31565972222</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1131,10 +1131,8 @@
           <t>4881112576</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:09:53</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44387.75686342592</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -1210,10 +1208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:28</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44387.75449074074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1289,10 +1285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:27:25</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44387.56070601852</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1364,10 +1358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:53:20</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44387.53703703704</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1435,10 +1427,8 @@
           <t>4873338217</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:54:43</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44387.45466435186</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1502,10 +1492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:53:50</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44387.45405092592</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1581,10 +1569,8 @@
           <t>4878006931</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:06:52</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44387.37976851852</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1660,10 +1646,8 @@
           <t>4877651317</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-10 08:49:50</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44387.36793981482</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1731,10 +1715,8 @@
           <t>4877678455</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-10 07:29:33</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44387.3121875</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1810,10 +1792,8 @@
           <t>4877650106</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-10 07:13:14</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44387.30085648148</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1881,10 +1861,8 @@
           <t>4877602648</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:50:44</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44387.28523148148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1956,10 +1934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-10 03:15:29</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44387.13575231482</v>
       </c>
       <c r="I21" t="n">
         <v>8</v>
@@ -2035,10 +2011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-10 02:49:28</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44387.11768518519</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2102,10 +2076,8 @@
           <t>4877173996</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:46:09</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44387.07371527778</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2181,10 +2153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:24:07</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44387.05841435185</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2252,10 +2222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:05:39</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44387.04559027778</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
@@ -2323,10 +2291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:41:47</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44387.02901620371</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -2408,10 +2374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:13:50</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44387.00960648148</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2479,10 +2443,8 @@
           <t>4876733477</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:10:13</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44387.00709490741</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2546,10 +2508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:06:25</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44387.00445601852</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2613,10 +2573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:51:09</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44386.99385416666</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2680,10 +2638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:05:21</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44386.96204861111</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2743,10 +2699,8 @@
           <t>4874511134</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:50:43</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44386.95188657408</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2810,10 +2764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:45:49</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44386.9484837963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2882,10 +2834,8 @@
           <t>4876014271</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:34:22</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44386.94053240741</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2961,10 +2911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:30:03</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44386.93753472222</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3032,10 +2980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:26:29</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44386.93505787037</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3099,10 +3045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:14:50</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44386.92696759259</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3166,10 +3110,8 @@
           <t>4875743799</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:00:09</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44386.91677083333</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3237,10 +3179,8 @@
           <t>4875645831</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:47:15</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44386.9078125</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3316,10 +3256,8 @@
           <t>4875576647</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:38:31</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44386.90174768519</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3387,10 +3325,8 @@
           <t>4873420396</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:06:40</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44386.87962962963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3462,10 +3398,8 @@
           <t>4873537012</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:59:26</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44386.87460648148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3533,10 +3467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:52:23</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44386.86971064815</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3600,10 +3532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:28:20</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44386.85300925926</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3667,10 +3597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:21:21</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44386.84815972222</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3738,10 +3666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:05:40</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44386.83726851852</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3805,10 +3731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:03:00</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44386.83541666667</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3876,10 +3800,8 @@
           <t>4874869985</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:01:05</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44386.83408564814</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3947,10 +3869,8 @@
           <t>4874870294</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:59:28</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44386.83296296297</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4027,10 +3947,8 @@
           <t>4874229663</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:48:26</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44386.82530092593</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4094,10 +4012,8 @@
           <t>4873420396</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:42:23</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44386.82109953704</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4169,10 +4085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:37:39</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44386.8178125</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4248,10 +4162,8 @@
           <t>4873294189</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:23:33</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44386.80802083333</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4333,10 +4245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:14:24</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44386.80166666667</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4409,10 +4319,8 @@
           <t>4873338217</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:12:34</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44386.80039351852</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4484,10 +4392,8 @@
           <t>4873420396</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:11:36</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44386.79972222223</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4555,10 +4461,8 @@
           <t>4874512767</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:09:44</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44386.79842592592</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4626,10 +4530,8 @@
           <t>4874511134</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:09:01</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44386.79792824074</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4701,10 +4603,8 @@
           <t>4874486222</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:04:56</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44386.79509259259</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4776,10 +4676,8 @@
           <t>4874465476</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:15</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44386.79322916667</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4839,10 +4737,8 @@
           <t>4874458016</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:01:28</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44386.79268518519</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4918,10 +4814,8 @@
           <t>4873631749</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:01:05</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44386.79241898148</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4981,10 +4875,8 @@
           <t>4874434217</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:59:32</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44386.79134259259</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5061,10 +4953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:41</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44386.78728009259</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5140,10 +5030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:43</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44386.78591435185</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5207,10 +5095,8 @@
           <t>4874382395</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:01</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44386.78542824074</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5286,10 +5172,8 @@
           <t>4874359909</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:55</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44386.78396990741</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5349,10 +5233,8 @@
           <t>4874365385</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:13</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44386.78348379629</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5425,10 +5307,8 @@
           <t>4874328354</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:57</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44386.78052083333</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5504,10 +5384,8 @@
           <t>4874302729</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:05</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44386.77783564815</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5583,10 +5461,8 @@
           <t>4874287834</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:57</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44386.77635416666</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5662,10 +5538,8 @@
           <t>4874280964</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:20</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44386.77523148148</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5729,10 +5603,8 @@
           <t>4874268769</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:27</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44386.77461805556</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5801,10 +5673,8 @@
           <t>4873328424</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:58</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44386.77219907408</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5880,10 +5750,8 @@
           <t>4873363810</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:38</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44386.77196759259</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5947,10 +5815,8 @@
           <t>4874238728</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:20</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44386.77175925926</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6026,10 +5892,8 @@
           <t>4874229663</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:08</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44386.77092592593</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6106,10 +5970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:03</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44386.77086805556</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6177,10 +6039,8 @@
           <t>4874219233</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:28:59</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44386.77012731481</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -6256,10 +6116,8 @@
           <t>4874212271</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:26:53</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44386.76866898148</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -6335,10 +6193,8 @@
           <t>4874204463</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:26:51</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44386.76864583333</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6414,10 +6270,8 @@
           <t>4874204406</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:26:49</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44386.76862268519</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6493,10 +6347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:25:56</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44386.76800925926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6568,10 +6420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:25:39</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44386.7678125</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6639,10 +6489,8 @@
           <t>4874201747</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:25:38</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44386.76780092593</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6714,10 +6562,8 @@
           <t>4873363810</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:23:36</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44386.76638888889</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6793,10 +6639,8 @@
           <t>4874152957</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:23:33</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44386.76635416667</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -6864,10 +6708,8 @@
           <t>4873420396</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:20:47</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44386.76443287037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6927,10 +6769,8 @@
           <t>4874152957</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:20:14</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44386.76405092593</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6998,10 +6838,8 @@
           <t>4874152957</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:18:28</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44386.76282407407</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7069,10 +6907,8 @@
           <t>4874143765</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:17:35</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44386.76221064815</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7136,10 +6972,8 @@
           <t>4874133135</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:16:09</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44386.76121527778</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7207,10 +7041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:11:49</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44386.75820601852</v>
       </c>
       <c r="I93" t="n">
         <v>9</v>
@@ -7278,10 +7110,8 @@
           <t>4874100297</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:10:38</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44386.75738425926</v>
       </c>
       <c r="I94" t="n">
         <v>4</v>
@@ -7357,10 +7187,8 @@
           <t>4874089744</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:10:24</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44386.75722222222</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7420,10 +7248,8 @@
           <t>4874092217</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:09:57</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44386.75690972222</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -7495,10 +7321,8 @@
           <t>4874082876</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:08:26</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44386.75585648148</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7574,10 +7398,8 @@
           <t>4874074216</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:08:00</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44386.75555555556</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7656,10 +7478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:07:48</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44386.75541666667</v>
       </c>
       <c r="I99" t="n">
         <v>12</v>
@@ -7723,10 +7543,8 @@
           <t>4874064117</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:06:49</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44386.7547337963</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7786,10 +7604,8 @@
           <t>4874065998</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:05:34</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44386.75386574074</v>
       </c>
       <c r="I101" t="n">
         <v>6</v>
@@ -7865,10 +7681,8 @@
           <t>4873342826</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:05:27</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44386.75378472222</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7932,10 +7746,8 @@
           <t>4873330259</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:03:54</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44386.75270833333</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8007,10 +7819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:02:16</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44386.75157407407</v>
       </c>
       <c r="I104" t="n">
         <v>8</v>
@@ -8096,10 +7906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:02:10</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44386.75150462963</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8171,10 +7979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:02:06</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44386.75145833333</v>
       </c>
       <c r="I106" t="n">
         <v>21</v>
@@ -8246,10 +8052,8 @@
           <t>4873417687</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:01:38</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44386.75113425926</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8325,10 +8129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:01:27</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44386.75100694445</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8396,10 +8198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:01:27</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44386.75100694445</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8468,10 +8268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:01:24</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44386.75097222222</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8539,10 +8337,8 @@
           <t>4874022928</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:00:34</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44386.75039351852</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8606,10 +8402,8 @@
           <t>4873631749</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:00:21</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44386.75024305555</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8673,10 +8467,8 @@
           <t>4873999141</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:57:24</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44386.74819444444</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8752,10 +8544,8 @@
           <t>4873674214</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:56:36</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44386.74763888889</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8823,10 +8613,8 @@
           <t>4873992501</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:56:05</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44386.74728009259</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8902,10 +8690,8 @@
           <t>4873537012</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:55:44</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44386.74703703704</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8969,10 +8755,8 @@
           <t>4873986221</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:54:41</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44386.74630787037</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9044,10 +8828,8 @@
           <t>4873973607</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:53:29</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44386.74547453703</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9123,10 +8905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:53:15</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44386.7453125</v>
       </c>
       <c r="I119" t="n">
         <v>4</v>
@@ -9202,10 +8982,8 @@
           <t>4873968441</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:52:28</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44386.74476851852</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9281,10 +9059,8 @@
           <t>4873970901</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:52:15</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44386.74461805556</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9348,10 +9124,8 @@
           <t>4873967239</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:51:54</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44386.744375</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9419,10 +9193,8 @@
           <t>4873962189</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:51:39</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44386.74420138889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9490,10 +9262,8 @@
           <t>4873958855</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:51:18</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44386.74395833333</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9565,10 +9335,8 @@
           <t>4873953570</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:50:26</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44386.74335648148</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9644,10 +9412,8 @@
           <t>4873363810</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:50:26</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44386.74335648148</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9719,10 +9485,8 @@
           <t>4873953570</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:50:08</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44386.74314814815</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9798,10 +9562,8 @@
           <t>4873948104</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:50:01</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44386.74306712963</v>
       </c>
       <c r="I128" t="n">
         <v>4</v>
@@ -9865,10 +9627,8 @@
           <t>4873721148</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:49:53</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44386.74297453704</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9936,10 +9696,8 @@
           <t>4873880863</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:49:44</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44386.74287037037</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10015,10 +9773,8 @@
           <t>4873352146</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:49:32</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44386.74273148148</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10094,10 +9850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:49:12</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44386.7425</v>
       </c>
       <c r="I132" t="n">
         <v>5</v>
@@ -10162,10 +9916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:49:06</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44386.74243055555</v>
       </c>
       <c r="I133" t="n">
         <v>12</v>
@@ -10229,10 +9981,8 @@
           <t>4873946142</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:49:05</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44386.74241898148</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10304,10 +10054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:46:20</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44386.74050925926</v>
       </c>
       <c r="I135" t="n">
         <v>4</v>
@@ -10371,10 +10119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:45:40</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44386.7400462963</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10438,10 +10184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:45:39</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44386.74003472222</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10505,10 +10249,8 @@
           <t>4873918665</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:45:38</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44386.74002314815</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10572,10 +10314,8 @@
           <t>4873922745</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:45:23</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44386.73984953704</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10651,10 +10391,8 @@
           <t>4873349661</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:42:39</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44386.73795138889</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10730,10 +10468,8 @@
           <t>4873900540</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:41:49</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44386.73737268519</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10801,10 +10537,8 @@
           <t>4873470265</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:41:19</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44386.73702546296</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10872,10 +10606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:40:29</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44386.73644675926</v>
       </c>
       <c r="I143" t="n">
         <v>11</v>
@@ -10939,10 +10671,8 @@
           <t>4873895659</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:40:29</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44386.73644675926</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11014,10 +10744,8 @@
           <t>4873674214</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:40:10</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44386.73622685186</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11093,10 +10821,8 @@
           <t>4873606762</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:39:17</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44386.73561342592</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11164,10 +10890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:38:42</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44386.73520833333</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11231,10 +10955,8 @@
           <t>4873497181</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:38:29</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44386.73505787037</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11302,10 +11024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:38:12</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44386.73486111111</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11381,10 +11101,8 @@
           <t>4873880863</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:38:10</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44386.73483796296</v>
       </c>
       <c r="I150" t="n">
         <v>4</v>
@@ -11460,10 +11178,8 @@
           <t>4873798449</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:37:31</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44386.73438657408</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11539,10 +11255,8 @@
           <t>4873864448</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:37:13</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44386.73417824074</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11618,10 +11332,8 @@
           <t>4873868125</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:36:51</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44386.73392361111</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11689,10 +11401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:36:45</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44386.73385416667</v>
       </c>
       <c r="I154" t="n">
         <v>10</v>
@@ -11787,10 +11497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:36:32</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44386.73370370371</v>
       </c>
       <c r="I155" t="n">
         <v>9</v>
@@ -11850,10 +11558,8 @@
           <t>4873862145</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:36:11</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44386.73346064815</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11925,10 +11631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:36:05</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44386.73339120371</v>
       </c>
       <c r="I157" t="n">
         <v>4</v>
@@ -12011,10 +11715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:35:56</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44386.73328703704</v>
       </c>
       <c r="I158" t="n">
         <v>8</v>
@@ -12076,10 +11778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:35:50</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44386.73321759259</v>
       </c>
       <c r="I159" t="n">
         <v>8</v>
@@ -12160,10 +11860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:35:36</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44386.73305555555</v>
       </c>
       <c r="I160" t="n">
         <v>7</v>
@@ -12252,10 +11950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:35:31</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44386.73299768518</v>
       </c>
       <c r="I161" t="n">
         <v>5</v>
@@ -12326,10 +12022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:35:26</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44386.73293981481</v>
       </c>
       <c r="I162" t="n">
         <v>7</v>
@@ -12390,10 +12084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:35:19</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44386.7328587963</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12453,10 +12145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:35:14</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44386.73280092593</v>
       </c>
       <c r="I164" t="n">
         <v>3</v>
@@ -12516,10 +12206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:35:11</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44386.73276620371</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -12579,10 +12267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:34:39</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44386.73239583334</v>
       </c>
       <c r="I166" t="n">
         <v>7</v>
@@ -12658,10 +12344,8 @@
           <t>4873532374</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:34:35</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44386.73234953704</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12729,10 +12413,8 @@
           <t>4873852735</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:34:11</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44386.73207175926</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12808,10 +12490,8 @@
           <t>4873470265</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:33:13</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44386.73140046297</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12871,10 +12551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:33:00</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44386.73125</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -12943,10 +12621,8 @@
           <t>4873532374</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:32:36</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44386.73097222222</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13014,10 +12690,8 @@
           <t>4873470265</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:32:29</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44386.7308912037</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13077,10 +12751,8 @@
           <t>4873371779</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:32:26</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44386.73085648148</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13148,10 +12820,8 @@
           <t>4873833949</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:32:26</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44386.73085648148</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13223,10 +12893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:32:11</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44386.73068287037</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13298,10 +12966,8 @@
           <t>4873417687</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:31:57</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44386.73052083333</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13361,10 +13027,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:31:37</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44386.73028935185</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13432,10 +13096,8 @@
           <t>4873799799</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:31:05</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44386.72991898148</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13499,10 +13161,8 @@
           <t>4873399883</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:30:35</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44386.72957175926</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13570,10 +13230,8 @@
           <t>4873823941</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:30:17</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44386.72936342593</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13649,10 +13307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:29:39</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44386.72892361111</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13716,10 +13372,8 @@
           <t>4873821575</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:29:12</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44386.72861111111</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13795,10 +13449,8 @@
           <t>4873363437</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:28:52</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44386.72837962963</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13866,10 +13518,8 @@
           <t>4873812694</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:28:43</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44386.72827546296</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13937,10 +13587,8 @@
           <t>4873470265</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:28:38</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44386.72821759259</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14008,10 +13656,8 @@
           <t>4873799799</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:27:18</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44386.72729166667</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14080,10 +13726,8 @@
           <t>4873799602</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:27:12</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44386.72722222222</v>
       </c>
       <c r="I187" t="n">
         <v>2</v>
@@ -14163,10 +13807,8 @@
           <t>4873802467</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:26:53</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44386.72700231482</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14242,10 +13884,8 @@
           <t>4873798449</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:26:38</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44386.7268287037</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14305,10 +13945,8 @@
           <t>4873631749</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:25:57</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44386.72635416667</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14368,10 +14006,8 @@
           <t>4873788516</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:24:58</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44386.7256712963</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14435,10 +14071,8 @@
           <t>4873545596</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:24:47</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44386.72554398148</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14502,10 +14136,8 @@
           <t>4873343761</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:24:43</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44386.72549768518</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14581,10 +14213,8 @@
           <t>4873787522</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:24:29</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44386.72533564815</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14656,10 +14286,8 @@
           <t>4873785766</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:23:36</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44386.72472222222</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14739,10 +14367,8 @@
           <t>4873764904</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:21:38</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44386.72335648148</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14814,10 +14440,8 @@
           <t>4873767111</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:21:12</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44386.72305555556</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14893,10 +14517,8 @@
           <t>4873674214</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:20:53</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44386.72283564815</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -14968,10 +14590,8 @@
           <t>4873759277</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:20:28</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44386.7225462963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15047,10 +14667,8 @@
           <t>4873762015</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:20:23</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44386.72248842593</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15114,10 +14732,8 @@
           <t>4873751207</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:18:23</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44386.72109953704</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15193,10 +14809,8 @@
           <t>4873313036</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:18:22</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44386.72108796296</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15272,10 +14886,8 @@
           <t>4873371779</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:15:42</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44386.71923611111</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15343,10 +14955,8 @@
           <t>4873724535</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:15:11</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44386.71887731482</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15410,10 +15020,8 @@
           <t>4873721623</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:13:45</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44386.71788194445</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15477,10 +15085,8 @@
           <t>4873721148</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:13:31</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44386.71771990741</v>
       </c>
       <c r="I206" t="n">
         <v>4</v>
@@ -15552,10 +15158,8 @@
           <t>4873716618</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:13:28</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44386.71768518518</v>
       </c>
       <c r="I207" t="n">
         <v>7</v>
@@ -15619,10 +15223,8 @@
           <t>4873303269</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:12:51</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44386.71725694444</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15686,10 +15288,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:12:16</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44386.71685185185</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15761,10 +15361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:12:09</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44386.71677083334</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15841,10 +15439,8 @@
           <t>4873342826</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:11:00</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44386.71597222222</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15916,10 +15512,8 @@
           <t>4873705133</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:10:35</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44386.71568287037</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15987,10 +15581,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:09:42</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44386.71506944444</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16066,10 +15658,8 @@
           <t>4873316023</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:09:35</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44386.71498842593</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16141,10 +15731,8 @@
           <t>4873334888</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:08:05</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44386.71394675926</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16216,10 +15804,8 @@
           <t>4873674214</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:07:38</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44386.71363425926</v>
       </c>
       <c r="I216" t="n">
         <v>5</v>
@@ -16287,10 +15873,8 @@
           <t>4873634855</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:07:17</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44386.7133912037</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16350,10 +15934,8 @@
           <t>4873532374</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:07:14</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44386.71335648148</v>
       </c>
       <c r="I218" t="n">
         <v>4</v>
@@ -16425,10 +16007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:05:55</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44386.71244212963</v>
       </c>
       <c r="I219" t="n">
         <v>6</v>
@@ -16496,10 +16076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:05:48</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44386.71236111111</v>
       </c>
       <c r="I220" t="n">
         <v>5</v>
@@ -16567,10 +16145,8 @@
           <t>4873664469</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:05:24</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44386.71208333333</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16638,10 +16214,8 @@
           <t>4873327528</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:05:23</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44386.71207175926</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16705,10 +16279,8 @@
           <t>4873668429</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:05:15</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44386.71197916667</v>
       </c>
       <c r="I223" t="n">
         <v>3</v>
@@ -16776,10 +16348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:04:54</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44386.71173611111</v>
       </c>
       <c r="I224" t="n">
         <v>5</v>
@@ -16855,10 +16425,8 @@
           <t>4873658237</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:04:39</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44386.7115625</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16918,10 +16486,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:04:04</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44386.71115740741</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16993,10 +16559,8 @@
           <t>4873656288</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:03:39</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44386.71086805555</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17068,10 +16632,8 @@
           <t>4873654611</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:03:16</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44386.71060185185</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17139,10 +16701,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:02:51</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44386.7103125</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17214,10 +16774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:02:34</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44386.71011574074</v>
       </c>
       <c r="I230" t="n">
         <v>16</v>
@@ -17285,10 +16843,8 @@
           <t>4873371779</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:01:56</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44386.70967592593</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17352,10 +16908,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:01:32</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44386.70939814814</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17427,10 +16981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:01:04</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44386.70907407408</v>
       </c>
       <c r="I233" t="n">
         <v>3</v>
@@ -17494,10 +17046,8 @@
           <t>4873470265</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:01:03</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44386.7090625</v>
       </c>
       <c r="I234" t="n">
         <v>4</v>
@@ -17560,10 +17110,8 @@
           <t>4873634855</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:00:56</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44386.70898148148</v>
       </c>
       <c r="I235" t="n">
         <v>5</v>
@@ -17639,10 +17187,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:00:48</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44386.70888888889</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17702,10 +17248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:00:44</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44386.70884259259</v>
       </c>
       <c r="I237" t="n">
         <v>10</v>
@@ -17765,10 +17309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:00:40</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44386.7087962963</v>
       </c>
       <c r="I238" t="n">
         <v>7</v>
@@ -17828,10 +17370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:00:25</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44386.70862268518</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -17895,10 +17435,8 @@
           <t>4873637516</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:59:44</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44386.70814814815</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17970,10 +17508,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:59:24</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44386.70791666667</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -18033,10 +17569,8 @@
           <t>4873631749</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:59:24</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44386.70791666667</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -18100,10 +17634,8 @@
           <t>4873627637</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:59:22</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44386.70789351852</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18167,10 +17699,8 @@
           <t>4873636665</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:59:19</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44386.7078587963</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18239,10 +17769,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:58:53</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44386.70755787037</v>
       </c>
       <c r="I245" t="n">
         <v>2</v>
@@ -18314,10 +17842,8 @@
           <t>4873625083</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:58:01</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44386.70695601852</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18381,10 +17907,8 @@
           <t>4873402417</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:57:50</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44386.7068287037</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18452,10 +17976,8 @@
           <t>4873532374</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:57:25</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44386.70653935185</v>
       </c>
       <c r="I248" t="n">
         <v>6</v>
@@ -18515,10 +18037,8 @@
           <t>4873621597</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:56:50</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44386.70613425926</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18586,10 +18106,8 @@
           <t>4873621473</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:56:47</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44386.70609953703</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18653,10 +18171,8 @@
           <t>4873470265</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:56:37</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44386.7059837963</v>
       </c>
       <c r="I251" t="n">
         <v>5</v>
@@ -18728,10 +18244,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:56:36</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44386.70597222223</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18803,10 +18317,8 @@
           <t>4873441557</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:56:31</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44386.70591435185</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18878,10 +18390,8 @@
           <t>4873343299</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:56:09</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44386.70565972223</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18949,10 +18459,8 @@
           <t>4873579739</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:55:42</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44386.70534722223</v>
       </c>
       <c r="I255" t="n">
         <v>2</v>
@@ -19028,10 +18536,8 @@
           <t>4873599918</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:55:20</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44386.70509259259</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19103,10 +18609,8 @@
           <t>4873470265</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:55:10</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44386.70497685186</v>
       </c>
       <c r="I257" t="n">
         <v>6</v>
@@ -19170,10 +18674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:55:07</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44386.70494212963</v>
       </c>
       <c r="I258" t="n">
         <v>14</v>
@@ -19233,10 +18735,8 @@
           <t>4873338217</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:54:47</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44386.70471064815</v>
       </c>
       <c r="I259" t="n">
         <v>3</v>
@@ -19308,10 +18808,8 @@
           <t>4873579739</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:54:41</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44386.7046412037</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19375,10 +18873,8 @@
           <t>4873606762</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:54:26</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44386.70446759259</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19454,10 +18950,8 @@
           <t>4873420396</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:54:12</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44386.70430555556</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19525,10 +19019,8 @@
           <t>4873303269</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:53:56</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44386.70412037037</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19600,10 +19092,8 @@
           <t>4873360200</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:53:22</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44386.70372685185</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19667,10 +19157,8 @@
           <t>4873316023</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:52:10</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44386.70289351852</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19742,10 +19230,8 @@
           <t>4873587678</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:52:06</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44386.70284722222</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19821,10 +19307,8 @@
           <t>4873360200</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:52:04</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44386.70282407408</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19888,10 +19372,8 @@
           <t>4873470265</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:51:44</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44386.70259259259</v>
       </c>
       <c r="I268" t="n">
         <v>10</v>
@@ -19959,10 +19441,8 @@
           <t>4873579739</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:50:53</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44386.70200231481</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20038,10 +19518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:50:24</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44386.70166666667</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20109,10 +19587,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:50:17</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44386.70158564814</v>
       </c>
       <c r="I271" t="n">
         <v>6</v>
@@ -20223,10 +19699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:50:03</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44386.70142361111</v>
       </c>
       <c r="I272" t="n">
         <v>45</v>
@@ -20290,10 +19764,8 @@
           <t>4873378449</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:50:00</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44386.70138888889</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20366,10 +19838,8 @@
           <t>4873577775</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:49:53</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44386.70130787037</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20441,10 +19911,8 @@
           <t>4873349661</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:49:43</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44386.70119212963</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20512,10 +19980,8 @@
           <t>4873576347</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:49:11</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44386.70082175926</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20583,10 +20049,8 @@
           <t>4873575645</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:48:49</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44386.70056712963</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20659,10 +20123,8 @@
           <t>4873363810</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:47:54</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44386.69993055556</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20730,10 +20192,8 @@
           <t>4873565664</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:47:54</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44386.69993055556</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20793,10 +20253,8 @@
           <t>4873525642</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:47:50</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44386.69988425926</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20872,10 +20330,8 @@
           <t>4873563554</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:47:48</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44386.69986111111</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20947,10 +20403,8 @@
           <t>4873402417</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:47:36</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44386.69972222222</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21021,10 +20475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:47:01</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44386.69931712963</v>
       </c>
       <c r="I283" t="n">
         <v>95</v>
@@ -21092,10 +20544,8 @@
           <t>4873387442</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:46:23</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44386.69887731481</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21159,10 +20609,8 @@
           <t>4873387442</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:46:19</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44386.69883101852</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21234,10 +20682,8 @@
           <t>4873313036</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:45:41</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44386.6983912037</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21313,10 +20759,8 @@
           <t>4873420396</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:45:00</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44386.69791666666</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21388,10 +20832,8 @@
           <t>4873544166</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:44:58</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44386.69789351852</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21456,10 +20898,8 @@
           <t>4873539819</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:44:45</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44386.69774305556</v>
       </c>
       <c r="I289" t="n">
         <v>3</v>
@@ -21527,10 +20967,8 @@
           <t>4873545596</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:44:35</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44386.69762731482</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21594,10 +21032,8 @@
           <t>4873387442</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:44:22</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44386.69747685185</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21665,10 +21101,8 @@
           <t>4873542502</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:44:02</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44386.69724537037</v>
       </c>
       <c r="I292" t="n">
         <v>2</v>
@@ -21736,10 +21170,8 @@
           <t>4873546007</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:43:59</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44386.69721064815</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21811,10 +21243,8 @@
           <t>4873545596</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:43:47</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44386.69707175926</v>
       </c>
       <c r="I294" t="n">
         <v>5</v>
@@ -21884,10 +21314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:43:31</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44386.69688657407</v>
       </c>
       <c r="I295" t="n">
         <v>3</v>
@@ -21956,10 +21384,8 @@
           <t>4873537012</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:43:14</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44386.69668981482</v>
       </c>
       <c r="I296" t="n">
         <v>14</v>
@@ -22035,10 +21461,8 @@
           <t>4873529253</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:42:19</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44386.69605324074</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22114,10 +21538,8 @@
           <t>4873532374</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:42:09</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44386.6959375</v>
       </c>
       <c r="I298" t="n">
         <v>29</v>
@@ -22189,10 +21611,8 @@
           <t>4873528618</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:41:59</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44386.69582175926</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22268,10 +21688,8 @@
           <t>4873337457</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:41:56</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44386.69578703704</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22339,10 +21757,8 @@
           <t>4873524483</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:41:55</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44386.69577546296</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22418,10 +21834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:41:22</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44386.69539351852</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22489,10 +21903,8 @@
           <t>4873436655</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:41:07</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44386.69521990741</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22568,10 +21980,8 @@
           <t>4873436655</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:41:06</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44386.69520833333</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22639,10 +22049,8 @@
           <t>4873478204</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:41:01</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44386.69515046296</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22710,10 +22118,8 @@
           <t>4873526373</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:40:46</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44386.69497685185</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22785,10 +22191,8 @@
           <t>4873526118</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:40:37</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44386.69487268518</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22860,10 +22264,8 @@
           <t>4873525642</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:40:22</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44386.69469907408</v>
       </c>
       <c r="I308" t="n">
         <v>5</v>
@@ -22933,10 +22335,8 @@
           <t>4873337457</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:40:16</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44386.69462962963</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23008,10 +22408,8 @@
           <t>4873518360</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:40:04</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44386.69449074074</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23079,10 +22477,8 @@
           <t>4873525033</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:40:04</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44386.69449074074</v>
       </c>
       <c r="I311" t="n">
         <v>7</v>
@@ -23146,10 +22542,8 @@
           <t>4873514489</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:39:47</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44386.69429398148</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23213,10 +22607,8 @@
           <t>4873509992</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:39:34</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44386.69414351852</v>
       </c>
       <c r="I313" t="n">
         <v>5</v>
@@ -23289,10 +22681,8 @@
           <t>4873378449</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:39:12</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44386.69388888889</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23364,10 +22754,8 @@
           <t>4873508621</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:38:53</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44386.69366898148</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23445,10 +22833,8 @@
           <t>4873402417</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:38:53</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44386.69366898148</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23516,10 +22902,8 @@
           <t>4873508393</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:38:46</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44386.69358796296</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23583,10 +22967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:38:44</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44386.69356481481</v>
       </c>
       <c r="I318" t="n">
         <v>10</v>
@@ -23658,10 +23040,8 @@
           <t>4873511461</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:38:10</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44386.6931712963</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23725,10 +23105,8 @@
           <t>4873503324</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:37:34</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44386.69275462963</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23804,10 +23182,8 @@
           <t>4873499867</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:37:20</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44386.69259259259</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23880,10 +23256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:37:04</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44386.6924074074</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23951,10 +23325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:36:43</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44386.69216435185</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24018,10 +23390,8 @@
           <t>4873501541</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:36:41</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44386.6921412037</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -24091,10 +23461,8 @@
           <t>4873500821</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:36:19</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44386.69188657407</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24163,10 +23531,8 @@
           <t>4873497181</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:35:54</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44386.69159722222</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24230,10 +23596,8 @@
           <t>4873496288</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:35:24</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44386.69125</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24305,10 +23669,8 @@
           <t>4873420396</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:34:56</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44386.69092592593</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24380,10 +23742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:34:54</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44386.69090277778</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24451,10 +23811,8 @@
           <t>4873363810</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:34:52</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44386.69087962963</v>
       </c>
       <c r="I330" t="n">
         <v>2</v>
@@ -24532,10 +23890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:34:47</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44386.69082175926</v>
       </c>
       <c r="I331" t="n">
         <v>35</v>
@@ -24611,10 +23967,8 @@
           <t>4873405673</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:34:46</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44386.69081018519</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24682,10 +24036,8 @@
           <t>4873484692</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:34:33</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44386.69065972222</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24761,10 +24113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:34:31</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44386.69063657407</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24833,10 +24183,8 @@
           <t>4873378449</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:34:10</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44386.69039351852</v>
       </c>
       <c r="I335" t="n">
         <v>9</v>
@@ -24908,10 +24256,8 @@
           <t>4873479416</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:34:01</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44386.69028935185</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -24983,10 +24329,8 @@
           <t>4873486232</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:34:00</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44386.69027777778</v>
       </c>
       <c r="I337" t="n">
         <v>5</v>
@@ -25062,10 +24406,8 @@
           <t>4873486001</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:33:53</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44386.69019675926</v>
       </c>
       <c r="I338" t="n">
         <v>3</v>
@@ -25141,10 +24483,8 @@
           <t>4873482526</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:33:22</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44386.68983796296</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25216,10 +24556,8 @@
           <t>4873478204</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:33:22</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44386.68983796296</v>
       </c>
       <c r="I340" t="n">
         <v>7</v>
@@ -25287,10 +24625,8 @@
           <t>4873363437</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:32:47</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44386.68943287037</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25350,10 +24686,8 @@
           <t>4873481184</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:32:38</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44386.6893287037</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25421,10 +24755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:31:18</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44386.68840277778</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25489,10 +24821,8 @@
           <t>4873464174</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:31:14</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44386.68835648148</v>
       </c>
       <c r="I344" t="n">
         <v>5</v>
@@ -25564,10 +24894,8 @@
           <t>4873316023</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:31:01</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44386.68820601852</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25639,10 +24967,8 @@
           <t>4873470265</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:30:57</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44386.68815972222</v>
       </c>
       <c r="I346" t="n">
         <v>13</v>
@@ -25702,10 +25028,8 @@
           <t>4873420396</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:30:48</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44386.68805555555</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25773,10 +25097,8 @@
           <t>4873337457</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:30:39</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44386.68795138889</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25845,10 +25167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:30:32</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44386.68787037037</v>
       </c>
       <c r="I349" t="n">
         <v>33</v>
@@ -25918,10 +25238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:30:19</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44386.68771990741</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25989,10 +25307,8 @@
           <t>4873466791</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:30:15</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44386.68767361111</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26056,10 +25372,8 @@
           <t>4873458743</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:30:08</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44386.68759259259</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26127,10 +25441,8 @@
           <t>4873466160</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:29:54</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44386.68743055555</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26207,10 +25519,8 @@
           <t>4873402417</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:29:48</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44386.68736111111</v>
       </c>
       <c r="I354" t="n">
         <v>4</v>
@@ -26282,10 +25592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:29:43</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44386.68730324074</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26361,10 +25669,8 @@
           <t>4873363437</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:29:35</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44386.68721064815</v>
       </c>
       <c r="I356" t="n">
         <v>4</v>
@@ -26432,10 +25738,8 @@
           <t>4873334888</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:29:06</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44386.686875</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26511,10 +25815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:28:42</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44386.68659722222</v>
       </c>
       <c r="I358" t="n">
         <v>46</v>
@@ -26574,10 +25876,8 @@
           <t>4873453809</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:28:36</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44386.68652777778</v>
       </c>
       <c r="I359" t="n">
         <v>16</v>
@@ -26649,10 +25949,8 @@
           <t>4873402417</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:28:33</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44386.68649305555</v>
       </c>
       <c r="I360" t="n">
         <v>11</v>
@@ -26724,10 +26022,8 @@
           <t>4873337457</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:28:27</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44386.68642361111</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26799,10 +26095,8 @@
           <t>4873399883</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:28:24</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44386.68638888889</v>
       </c>
       <c r="I362" t="n">
         <v>2</v>
@@ -26870,10 +26164,8 @@
           <t>4873453311</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:28:18</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44386.68631944444</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26941,10 +26233,8 @@
           <t>4873405673</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:27:57</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44386.68607638889</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27020,10 +26310,8 @@
           <t>4873448099</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:27:56</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44386.68606481481</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27097,10 +26385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:27:55</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44386.68605324074</v>
       </c>
       <c r="I366" t="n">
         <v>32</v>
@@ -27168,10 +26454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:26:50</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44386.68530092593</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27247,10 +26531,8 @@
           <t>4873334888</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:26:42</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44386.68520833334</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27322,10 +26604,8 @@
           <t>4873441557</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:26:22</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44386.68497685185</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27401,10 +26681,8 @@
           <t>4873445231</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:26:22</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44386.68497685185</v>
       </c>
       <c r="I370" t="n">
         <v>3</v>
@@ -27464,10 +26742,8 @@
           <t>4873434030</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:25:42</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44386.68451388889</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27543,10 +26819,8 @@
           <t>4873433863</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:25:38</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44386.68446759259</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27622,10 +26896,8 @@
           <t>4873433265</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:25:18</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44386.68423611111</v>
       </c>
       <c r="I373" t="n">
         <v>8</v>
@@ -27689,10 +26961,8 @@
           <t>4873334888</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:25:16</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44386.68421296297</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27768,10 +27038,8 @@
           <t>4873337457</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:25:02</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44386.68405092593</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27839,10 +27107,8 @@
           <t>4873432691</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:24:58</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44386.68400462963</v>
       </c>
       <c r="I376" t="n">
         <v>4</v>
@@ -27914,10 +27180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:24:27</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44386.68364583333</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27985,10 +27249,8 @@
           <t>4873352146</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:24:26</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44386.68363425926</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28060,10 +27322,8 @@
           <t>4873331765</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:24:22</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44386.68358796297</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28131,10 +27391,8 @@
           <t>4873431307</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:24:14</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44386.68349537037</v>
       </c>
       <c r="I380" t="n">
         <v>4</v>
@@ -28206,10 +27464,8 @@
           <t>4873435647</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:24:06</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44386.68340277778</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28281,10 +27537,8 @@
           <t>4873420396</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:23:50</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44386.6832175926</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28356,10 +27610,8 @@
           <t>4873294189</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:23:39</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44386.68309027778</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28431,10 +27683,8 @@
           <t>4873425169</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:23:04</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44386.68268518519</v>
       </c>
       <c r="I384" t="n">
         <v>6</v>
@@ -28494,10 +27744,8 @@
           <t>4873334888</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:22:53</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44386.68255787037</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28573,10 +27821,8 @@
           <t>4873387442</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:22:48</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44386.6825</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28648,10 +27894,8 @@
           <t>4873418132</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:22:33</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44386.68232638889</v>
       </c>
       <c r="I387" t="n">
         <v>4</v>
@@ -28719,10 +27963,8 @@
           <t>4873303269</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:22:25</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44386.68223379629</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28798,10 +28040,8 @@
           <t>4873337457</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:22:22</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44386.68219907407</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28873,10 +28113,8 @@
           <t>4873417687</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:22:19</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44386.68216435185</v>
       </c>
       <c r="I390" t="n">
         <v>19</v>
@@ -28944,10 +28182,8 @@
           <t>4873420396</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:22:19</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44386.68216435185</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29015,10 +28251,8 @@
           <t>4873324654</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:22:16</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44386.68212962963</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29090,10 +28324,8 @@
           <t>4873324654</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:22:07</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44386.68202546296</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29169,10 +28401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:21:55</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44386.68188657407</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29236,10 +28466,8 @@
           <t>4873303269</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:21:54</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44386.681875</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29315,10 +28543,8 @@
           <t>4873383951</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:21:52</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44386.68185185185</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29386,10 +28612,8 @@
           <t>4873405673</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:21:29</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44386.68158564815</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29457,10 +28681,8 @@
           <t>4873383951</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:21:23</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44386.6815162037</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29532,10 +28754,8 @@
           <t>4873420396</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:21:15</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44386.68142361111</v>
       </c>
       <c r="I399" t="n">
         <v>6</v>
@@ -29607,10 +28827,8 @@
           <t>4873410821</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:20:50</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44386.68113425926</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29670,10 +28888,8 @@
           <t>4873379454</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:20:42</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44386.68104166666</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29733,10 +28949,8 @@
           <t>4873409243</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:20:37</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44386.68098379629</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29808,10 +29022,8 @@
           <t>4873337457</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:20:26</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44386.68085648148</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29879,10 +29091,8 @@
           <t>4873399883</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:20:22</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44386.68081018519</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29950,10 +29160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:19:42</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44386.68034722222</v>
       </c>
       <c r="I405" t="n">
         <v>73</v>
@@ -30021,10 +29229,8 @@
           <t>4873407484</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:19:40</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44386.68032407408</v>
       </c>
       <c r="I406" t="n">
         <v>2</v>
@@ -30088,10 +29294,8 @@
           <t>4873402417</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:19:29</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44386.68019675926</v>
       </c>
       <c r="I407" t="n">
         <v>5</v>
@@ -30167,10 +29371,8 @@
           <t>4873334888</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:19:27</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44386.68017361111</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30242,10 +29444,8 @@
           <t>4873406919</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:19:21</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44386.68010416667</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30321,10 +29521,8 @@
           <t>4873401806</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:19:09</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44386.67996527778</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30400,10 +29598,8 @@
           <t>4873406136</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:18:56</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44386.67981481482</v>
       </c>
       <c r="I411" t="n">
         <v>6</v>
@@ -30480,10 +29676,8 @@
           <t>4873383951</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:18:45</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44386.6796875</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30551,10 +29745,8 @@
           <t>4873371779</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:18:04</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44386.67921296296</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30630,10 +29822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:18:01</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44386.67917824074</v>
       </c>
       <c r="I414" t="n">
         <v>5</v>
@@ -30705,10 +29895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:18:01</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44386.67917824074</v>
       </c>
       <c r="I415" t="n">
         <v>413</v>
@@ -30780,10 +29968,8 @@
           <t>4873395071</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:17:50</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44386.67905092592</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30860,10 +30046,8 @@
           <t>4873394039</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:17:47</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44386.67901620371</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30927,10 +30111,8 @@
           <t>4873378449</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:17:42</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44386.67895833333</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30994,10 +30176,8 @@
           <t>4873384819</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:17:42</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44386.67895833333</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -31073,10 +30253,8 @@
           <t>4873383951</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:17:14</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44386.67863425926</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31148,10 +30326,8 @@
           <t>4873392915</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:17:12</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44386.67861111111</v>
       </c>
       <c r="I421" t="n">
         <v>2</v>
@@ -31219,10 +30395,8 @@
           <t>4873388111</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:17:07</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44386.67855324074</v>
       </c>
       <c r="I422" t="n">
         <v>2</v>
@@ -31290,10 +30464,8 @@
           <t>4873303269</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:16:57</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44386.6784375</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31357,10 +30529,8 @@
           <t>4873387494</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:16:46</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44386.67831018518</v>
       </c>
       <c r="I424" t="n">
         <v>3</v>
@@ -31432,10 +30602,8 @@
           <t>4873387442</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:16:45</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44386.67829861111</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31503,10 +30671,8 @@
           <t>4873363437</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:16:17</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44386.67797453704</v>
       </c>
       <c r="I426" t="n">
         <v>21</v>
@@ -31578,10 +30744,8 @@
           <t>4873391158</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:16:15</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44386.67795138889</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31649,10 +30813,8 @@
           <t>4873331765</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:16:05</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44386.67783564814</v>
       </c>
       <c r="I428" t="n">
         <v>1</v>
@@ -31728,10 +30890,8 @@
           <t>4873390386</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:51</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44386.67767361111</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31799,10 +30959,8 @@
           <t>4873363810</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:49</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44386.67765046296</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31870,10 +31028,8 @@
           <t>4873381080</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:43</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44386.67758101852</v>
       </c>
       <c r="I431" t="n">
         <v>2</v>
@@ -31937,10 +31093,8 @@
           <t>4873385274</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:34</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44386.67747685185</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32008,10 +31162,8 @@
           <t>4873371779</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:33</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44386.67746527777</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32079,10 +31231,8 @@
           <t>4873363810</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:30</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44386.67743055556</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32150,10 +31300,8 @@
           <t>4873385045</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:27</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44386.67739583334</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32221,10 +31369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:26</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44386.67738425926</v>
       </c>
       <c r="I436" t="n">
         <v>5</v>
@@ -32292,10 +31438,8 @@
           <t>4873379454</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:21</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44386.67732638889</v>
       </c>
       <c r="I437" t="n">
         <v>3</v>
@@ -32371,10 +31515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:19</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44386.67730324074</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32444,10 +31586,8 @@
           <t>4873316023</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:16</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44386.67726851852</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32519,10 +31659,8 @@
           <t>4873349661</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:14</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44386.67724537037</v>
       </c>
       <c r="I440" t="n">
         <v>3</v>
@@ -32598,10 +31736,8 @@
           <t>4873331765</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:13</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44386.6772337963</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32669,10 +31805,8 @@
           <t>4873363437</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:15:10</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44386.67719907407</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32740,10 +31874,8 @@
           <t>4873374150</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:14:57</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44386.67704861111</v>
       </c>
       <c r="I443" t="n">
         <v>3</v>
@@ -32819,10 +31951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:14:51</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44386.67697916667</v>
       </c>
       <c r="I444" t="n">
         <v>6</v>
@@ -32890,10 +32020,8 @@
           <t>4873378449</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:14:46</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44386.6769212963</v>
       </c>
       <c r="I445" t="n">
         <v>19</v>
@@ -32963,10 +32091,8 @@
           <t>4873378295</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:14:40</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44386.67685185185</v>
       </c>
       <c r="I446" t="n">
         <v>2</v>
@@ -33042,10 +32168,8 @@
           <t>4873338217</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:14:27</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44386.67670138889</v>
       </c>
       <c r="I447" t="n">
         <v>17</v>
@@ -33121,10 +32245,8 @@
           <t>4873342826</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:14:14</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44386.67655092593</v>
       </c>
       <c r="I448" t="n">
         <v>7</v>
@@ -33196,10 +32318,8 @@
           <t>4873368028</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:14:09</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44386.67649305556</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33271,10 +32391,8 @@
           <t>4873367133</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:13:41</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44386.67616898148</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33346,10 +32464,8 @@
           <t>4873371779</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:13:38</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44386.67613425926</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33425,10 +32541,8 @@
           <t>4873371410</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:13:26</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44386.67599537037</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33496,10 +32610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:13:24</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44386.67597222222</v>
       </c>
       <c r="I453" t="n">
         <v>33</v>
@@ -33563,10 +32675,8 @@
           <t>4873375486</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:13:07</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44386.67577546297</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33642,10 +32752,8 @@
           <t>4873375458</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:13:06</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44386.67576388889</v>
       </c>
       <c r="I455" t="n">
         <v>3</v>
@@ -33717,10 +32825,8 @@
           <t>4873370491</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:12:56</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44386.67564814815</v>
       </c>
       <c r="I456" t="n">
         <v>14</v>
@@ -33796,10 +32902,8 @@
           <t>4873365525</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:12:52</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44386.67560185185</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -33869,10 +32973,8 @@
           <t>4873365203</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:12:42</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44386.67548611111</v>
       </c>
       <c r="I458" t="n">
         <v>5</v>
@@ -33953,10 +33055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:12:24</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44386.67527777778</v>
       </c>
       <c r="I459" t="n">
         <v>50</v>
@@ -34024,10 +33124,8 @@
           <t>4873364136</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:12:21</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44386.67524305556</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34092,10 +33190,8 @@
           <t>4873337457</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:12:19</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44386.67521990741</v>
       </c>
       <c r="I461" t="n">
         <v>7</v>
@@ -34168,10 +33264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:12:18</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44386.67520833333</v>
       </c>
       <c r="I462" t="n">
         <v>31</v>
@@ -34235,10 +33329,8 @@
           <t>4873359285</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:12:18</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44386.67520833333</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34314,10 +33406,8 @@
           <t>4873363810</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:12:11</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44386.67512731482</v>
       </c>
       <c r="I464" t="n">
         <v>17</v>
@@ -34393,10 +33483,8 @@
           <t>4873353991</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:12:05</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44386.67505787037</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34464,10 +33552,8 @@
           <t>4873363437</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:11:58</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44386.67497685185</v>
       </c>
       <c r="I466" t="n">
         <v>66</v>
@@ -34539,10 +33625,8 @@
           <t>4873341462</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:11:51</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44386.67489583333</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34618,10 +33702,8 @@
           <t>4873358272</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:11:44</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44386.67481481482</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34691,10 +33773,8 @@
           <t>4873303269</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:11:43</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44386.67480324074</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34762,10 +33842,8 @@
           <t>4873360200</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:11:20</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44386.67453703703</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34833,10 +33911,8 @@
           <t>4873362278</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:11:19</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44386.67452546296</v>
       </c>
       <c r="I471" t="n">
         <v>6</v>
@@ -34901,10 +33977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:11:18</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44386.67451388889</v>
       </c>
       <c r="I472" t="n">
         <v>8</v>
@@ -34969,10 +34043,8 @@
           <t>4873352146</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:11:06</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44386.674375</v>
       </c>
       <c r="I473" t="n">
         <v>13</v>
@@ -35040,10 +34112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:10:56</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44386.67425925926</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35103,10 +34173,8 @@
           <t>4873349661</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:10:56</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44386.67425925926</v>
       </c>
       <c r="I475" t="n">
         <v>4</v>
@@ -35183,10 +34251,8 @@
           <t>4873356368</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:10:43</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44386.67410879629</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35258,10 +34324,8 @@
           <t>4873360983</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:10:38</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44386.67405092593</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35329,10 +34393,8 @@
           <t>4873356162</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:10:36</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44386.67402777778</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35401,10 +34463,8 @@
           <t>4873334888</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:10:33</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44386.67399305556</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35480,10 +34540,8 @@
           <t>4873360755</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:10:31</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44386.67396990741</v>
       </c>
       <c r="I480" t="n">
         <v>2</v>
@@ -35559,10 +34617,8 @@
           <t>4873343761</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:10:23</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44386.67387731482</v>
       </c>
       <c r="I481" t="n">
         <v>5</v>
@@ -35630,10 +34686,8 @@
           <t>4873303269</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:10:20</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44386.67384259259</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35710,10 +34764,8 @@
           <t>4873360340</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:10:16</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44386.67379629629</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35781,10 +34833,8 @@
           <t>4873360200</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:10:12</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44386.67375</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35856,10 +34906,8 @@
           <t>4873328206</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:52</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44386.67351851852</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35931,10 +34979,8 @@
           <t>4873349661</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:46</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44386.67344907407</v>
       </c>
       <c r="I486" t="n">
         <v>4</v>
@@ -36010,10 +35056,8 @@
           <t>4873349619</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:45</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44386.6734375</v>
       </c>
       <c r="I487" t="n">
         <v>2</v>
@@ -36077,10 +35121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:44</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44386.67342592592</v>
       </c>
       <c r="I488" t="n">
         <v>142</v>
@@ -36144,10 +35186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:39</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44386.67336805556</v>
       </c>
       <c r="I489" t="n">
         <v>19</v>
@@ -36211,10 +35251,8 @@
           <t>4873349109</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:30</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44386.67326388889</v>
       </c>
       <c r="I490" t="n">
         <v>23</v>
@@ -36290,10 +35328,8 @@
           <t>4873334888</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:20</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44386.67314814815</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36361,10 +35397,8 @@
           <t>4873338721</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:16</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44386.67310185185</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36436,10 +35470,8 @@
           <t>4873343475</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:15</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44386.67309027778</v>
       </c>
       <c r="I493" t="n">
         <v>3</v>
@@ -36503,10 +35535,8 @@
           <t>4873343452</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:14</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44386.6730787037</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36570,10 +35600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:12</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44386.67305555556</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36641,10 +35669,8 @@
           <t>4873343338</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:11</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44386.67304398148</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36712,10 +35738,8 @@
           <t>4873343299</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:09</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44386.67302083333</v>
       </c>
       <c r="I497" t="n">
         <v>14</v>
@@ -36787,10 +35811,8 @@
           <t>4873343253</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:08</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44386.67300925926</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36867,10 +35889,8 @@
           <t>4873334888</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:09:03</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44386.67295138889</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36934,10 +35954,8 @@
           <t>4873338217</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:59</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44386.67290509259</v>
       </c>
       <c r="I500" t="n">
         <v>36</v>
@@ -37001,10 +36019,8 @@
           <t>4873342826</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:54</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44386.67284722222</v>
       </c>
       <c r="I501" t="n">
         <v>9</v>
@@ -37080,10 +36096,8 @@
           <t>4873328206</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:45</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44386.67274305555</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37159,10 +36173,8 @@
           <t>4873337457</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:34</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44386.67261574074</v>
       </c>
       <c r="I503" t="n">
         <v>2</v>
@@ -37230,10 +36242,8 @@
           <t>4873336543</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:33</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44386.67260416667</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37301,10 +36311,8 @@
           <t>4873328206</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:32</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44386.67259259259</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37364,10 +36372,8 @@
           <t>4873342134</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:31</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44386.67258101852</v>
       </c>
       <c r="I506" t="n">
         <v>36</v>
@@ -37439,10 +36445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:29</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44386.67255787037</v>
       </c>
       <c r="I507" t="n">
         <v>26</v>
@@ -37518,10 +36522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:26</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44386.67252314815</v>
       </c>
       <c r="I508" t="n">
         <v>3</v>
@@ -37597,10 +36599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:25</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44386.67251157408</v>
       </c>
       <c r="I509" t="n">
         <v>14</v>
@@ -37664,10 +36664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:24</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44386.6725</v>
       </c>
       <c r="I510" t="n">
         <v>32</v>
@@ -37743,10 +36741,8 @@
           <t>4873337129</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:23</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44386.67248842592</v>
       </c>
       <c r="I511" t="n">
         <v>8</v>
@@ -37814,10 +36810,8 @@
           <t>4873294189</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:22</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44386.67247685185</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37893,10 +36887,8 @@
           <t>4873334888</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:20</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44386.6724537037</v>
       </c>
       <c r="I513" t="n">
         <v>6</v>
@@ -37964,10 +36956,8 @@
           <t>4873346932</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:20</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44386.6724537037</v>
       </c>
       <c r="I514" t="n">
         <v>6</v>
@@ -38039,10 +37029,8 @@
           <t>4873346931</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:20</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44386.6724537037</v>
       </c>
       <c r="I515" t="n">
         <v>2</v>
@@ -38114,10 +37102,8 @@
           <t>4873336952</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:17</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44386.67241898148</v>
       </c>
       <c r="I516" t="n">
         <v>10</v>
@@ -38189,10 +37175,8 @@
           <t>4873340835</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:15</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44386.67239583333</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38264,10 +37248,8 @@
           <t>4873336817</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:13</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44386.67237268519</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38331,10 +37313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:10</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44386.67233796296</v>
       </c>
       <c r="I519" t="n">
         <v>10</v>
@@ -38402,10 +37382,8 @@
           <t>4873341462</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:08</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44386.67231481482</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38481,10 +37459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:06</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44386.67229166667</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38548,10 +37524,8 @@
           <t>4873346463</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:06</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44386.67229166667</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38611,10 +37585,8 @@
           <t>4873336543</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:03</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44386.67225694445</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38690,10 +37662,8 @@
           <t>4873341295</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:03</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44386.67225694445</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38765,10 +37735,8 @@
           <t>4873346368</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:08:03</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44386.67225694445</v>
       </c>
       <c r="I525" t="n">
         <v>3</v>
@@ -38832,10 +37800,8 @@
           <t>4873327528</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:57</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44386.6721875</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38903,10 +37869,8 @@
           <t>4873336187</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:52</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44386.67212962963</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38982,10 +37946,8 @@
           <t>4873340835</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:48</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44386.67208333333</v>
       </c>
       <c r="I528" t="n">
         <v>4</v>
@@ -39057,10 +38019,8 @@
           <t>4873336020</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:46</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44386.67206018518</v>
       </c>
       <c r="I529" t="n">
         <v>2</v>
@@ -39135,10 +38095,8 @@
           <t>4873340642</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:41</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44386.67200231482</v>
       </c>
       <c r="I530" t="n">
         <v>3</v>
@@ -39214,10 +38172,8 @@
           <t>4873345562</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:38</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44386.67196759259</v>
       </c>
       <c r="I531" t="n">
         <v>3</v>
@@ -39289,10 +38245,8 @@
           <t>4873340370</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:32</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44386.67189814815</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39352,10 +38306,8 @@
           <t>4873312034</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:25</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44386.67181712963</v>
       </c>
       <c r="I533" t="n">
         <v>2</v>
@@ -39423,10 +38375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:24</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44386.67180555555</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39498,10 +38448,8 @@
           <t>4873340088</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:23</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44386.67179398148</v>
       </c>
       <c r="I535" t="n">
         <v>8</v>
@@ -39573,10 +38521,8 @@
           <t>4873340056</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:22</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44386.67178240741</v>
       </c>
       <c r="I536" t="n">
         <v>3</v>
@@ -39644,10 +38590,8 @@
           <t>4873294189</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:20</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44386.67175925926</v>
       </c>
       <c r="I537" t="n">
         <v>4</v>
@@ -39715,10 +38659,8 @@
           <t>4873329932</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:18</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44386.67173611111</v>
       </c>
       <c r="I538" t="n">
         <v>2</v>
@@ -39782,10 +38724,8 @@
           <t>4873334888</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:17</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44386.67172453704</v>
       </c>
       <c r="I539" t="n">
         <v>21</v>
@@ -39861,10 +38801,8 @@
           <t>4873334815</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:15</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44386.67170138889</v>
       </c>
       <c r="I540" t="n">
         <v>7</v>
@@ -39932,10 +38870,8 @@
           <t>4873294189</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:11</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44386.67165509259</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -40011,10 +38947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:10</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44386.67164351852</v>
       </c>
       <c r="I542" t="n">
         <v>5</v>
@@ -40078,10 +39012,8 @@
           <t>4873334572</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:08</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44386.67162037037</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -40157,10 +39089,8 @@
           <t>4873334551</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:07</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44386.6716087963</v>
       </c>
       <c r="I544" t="n">
         <v>5</v>
@@ -40224,10 +39154,8 @@
           <t>4873334395</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:02</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44386.67155092592</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40303,10 +39231,8 @@
           <t>4873324654</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:01</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44386.67153935185</v>
       </c>
       <c r="I546" t="n">
         <v>10</v>
@@ -40382,10 +39308,8 @@
           <t>4873329423</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:07:00</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44386.67152777778</v>
       </c>
       <c r="I547" t="n">
         <v>9</v>
@@ -40461,10 +39385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:54</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44386.67145833333</v>
       </c>
       <c r="I548" t="n">
         <v>28</v>
@@ -40540,10 +39462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:44</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44386.67134259259</v>
       </c>
       <c r="I549" t="n">
         <v>4</v>
@@ -40619,10 +39539,8 @@
           <t>4873294189</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:35</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44386.67123842592</v>
       </c>
       <c r="I550" t="n">
         <v>6</v>
@@ -40690,10 +39608,8 @@
           <t>4873328424</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:27</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44386.67114583333</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40757,10 +39673,8 @@
           <t>4873328275</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:23</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44386.67109953704</v>
       </c>
       <c r="I552" t="n">
         <v>6</v>
@@ -40836,10 +39750,8 @@
           <t>4873328206</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:20</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44386.67106481481</v>
       </c>
       <c r="I553" t="n">
         <v>2</v>
@@ -40911,10 +39823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:19</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44386.67105324074</v>
       </c>
       <c r="I554" t="n">
         <v>1</v>
@@ -40990,10 +39900,8 @@
           <t>4873332936</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:17</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44386.67103009259</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41065,10 +39973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:14</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44386.67099537037</v>
       </c>
       <c r="I556" t="n">
         <v>16</v>
@@ -41144,10 +40050,8 @@
           <t>4873328018</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:14</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44386.67099537037</v>
       </c>
       <c r="I557" t="n">
         <v>3</v>
@@ -41215,10 +40119,8 @@
           <t>4873332750</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:12</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44386.67097222222</v>
       </c>
       <c r="I558" t="n">
         <v>2</v>
@@ -41294,10 +40196,8 @@
           <t>4873313874</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:10</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44386.67094907408</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41365,10 +40265,8 @@
           <t>4873332608</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:07</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44386.67091435185</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41444,10 +40342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:03</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44386.67086805555</v>
       </c>
       <c r="I561" t="n">
         <v>49</v>
@@ -41519,10 +40415,8 @@
           <t>4873327681</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:03</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44386.67086805555</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41586,10 +40480,8 @@
           <t>4873327680</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:06:03</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44386.67086805555</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41665,10 +40557,8 @@
           <t>4873327528</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:58</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44386.67081018518</v>
       </c>
       <c r="I564" t="n">
         <v>5</v>
@@ -41732,10 +40622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:48</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44386.67069444444</v>
       </c>
       <c r="I565" t="n">
         <v>892</v>
@@ -41803,10 +40691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:45</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44386.67065972222</v>
       </c>
       <c r="I566" t="n">
         <v>59</v>
@@ -41874,10 +40760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:40</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44386.67060185185</v>
       </c>
       <c r="I567" t="n">
         <v>6</v>
@@ -41945,10 +40829,8 @@
           <t>4873331765</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:39</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44386.67059027778</v>
       </c>
       <c r="I568" t="n">
         <v>2</v>
@@ -42024,10 +40906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:34</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44386.67053240741</v>
       </c>
       <c r="I569" t="n">
         <v>5</v>
@@ -42099,10 +40979,8 @@
           <t>4873308410</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:33</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44386.67052083334</v>
       </c>
       <c r="I570" t="n">
         <v>1</v>
@@ -42170,10 +41048,8 @@
           <t>4873303269</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:32</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44386.67050925926</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -42245,10 +41121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:29</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44386.67047453704</v>
       </c>
       <c r="I572" t="n">
         <v>3</v>
@@ -42320,10 +41194,8 @@
           <t>4873331294</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:24</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44386.67041666667</v>
       </c>
       <c r="I573" t="n">
         <v>12</v>
@@ -42383,10 +41255,8 @@
           <t>4873321669</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:23</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44386.67040509259</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42462,10 +41332,8 @@
           <t>4873314822</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:22</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44386.67039351852</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42541,10 +41409,8 @@
           <t>4873326491</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:22</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44386.67039351852</v>
       </c>
       <c r="I576" t="n">
         <v>10</v>
@@ -42620,10 +41486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:13</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44386.67028935185</v>
       </c>
       <c r="I577" t="n">
         <v>1</v>
@@ -42699,10 +41563,8 @@
           <t>4873321379</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:13</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44386.67028935185</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42770,10 +41632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:05</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44386.67019675926</v>
       </c>
       <c r="I579" t="n">
         <v>1</v>
@@ -42837,10 +41697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:04:52</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44386.6700462963</v>
       </c>
       <c r="I580" t="n">
         <v>19</v>
@@ -42908,10 +41766,8 @@
           <t>4873330259</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:04:50</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44386.67002314814</v>
       </c>
       <c r="I581" t="n">
         <v>23</v>
@@ -42987,10 +41843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:04:46</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44386.66997685185</v>
       </c>
       <c r="I582" t="n">
         <v>14</v>
@@ -43066,10 +41920,8 @@
           <t>4873320486</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:04:43</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44386.66994212963</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -43137,10 +41989,8 @@
           <t>4873325083</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:04:33</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44386.66982638889</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43212,10 +42062,8 @@
           <t>4873314822</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:04:25</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44386.6697337963</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43291,10 +42139,8 @@
           <t>4873314640</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:04:18</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44386.66965277777</v>
       </c>
       <c r="I586" t="n">
         <v>4</v>
@@ -43358,10 +42204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:04:17</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44386.66964120371</v>
       </c>
       <c r="I587" t="n">
         <v>2</v>
@@ -43425,10 +42269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:04:17</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44386.66964120371</v>
       </c>
       <c r="I588" t="n">
         <v>14</v>
@@ -43500,10 +42342,8 @@
           <t>4873318993</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:04:09</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44386.66954861111</v>
       </c>
       <c r="I589" t="n">
         <v>1</v>
@@ -43579,10 +42419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:04:05</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44386.66950231481</v>
       </c>
       <c r="I590" t="n">
         <v>11</v>
@@ -43646,10 +42484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:53</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44386.66936342593</v>
       </c>
       <c r="I591" t="n">
         <v>15</v>
@@ -43717,10 +42553,8 @@
           <t>4873313874</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:53</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44386.66936342593</v>
       </c>
       <c r="I592" t="n">
         <v>6</v>
@@ -43784,10 +42618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:47</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44386.66929398148</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43851,10 +42683,8 @@
           <t>4873318219</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:44</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44386.66925925926</v>
       </c>
       <c r="I594" t="n">
         <v>5</v>
@@ -43926,10 +42756,8 @@
           <t>4873308528</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:38</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44386.66918981481</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44005,10 +42833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:37</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44386.66917824074</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44080,10 +42906,8 @@
           <t>4873303269</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:35</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44386.66915509259</v>
       </c>
       <c r="I597" t="n">
         <v>15</v>
@@ -44151,10 +42975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:34</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44386.66914351852</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44222,10 +43044,8 @@
           <t>4873308410</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:34</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44386.66914351852</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44297,10 +43117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:33</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44386.66913194444</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44364,10 +43182,8 @@
           <t>4873313036</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:26</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44386.66905092593</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -44435,10 +43251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:23</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44386.6690162037</v>
       </c>
       <c r="I602" t="n">
         <v>14</v>
@@ -44514,10 +43328,8 @@
           <t>4873312938</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:22</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44386.66900462963</v>
       </c>
       <c r="I603" t="n">
         <v>4</v>
@@ -44593,10 +43405,8 @@
           <t>4873307984</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:20</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44386.66898148148</v>
       </c>
       <c r="I604" t="n">
         <v>2</v>
@@ -44668,10 +43478,8 @@
           <t>4873303269</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:17</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44386.66894675926</v>
       </c>
       <c r="I605" t="n">
         <v>34</v>
@@ -44740,10 +43548,8 @@
           <t>4873312627</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:13</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44386.66890046297</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44815,10 +43621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:07</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44386.66883101852</v>
       </c>
       <c r="I607" t="n">
         <v>22</v>
@@ -44890,10 +43694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:03:01</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44386.66876157407</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44961,10 +43763,8 @@
           <t>4873312034</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:53</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44386.66866898148</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -45033,10 +43833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:51</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44386.66864583334</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45104,10 +43902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:47</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44386.66859953704</v>
       </c>
       <c r="I611" t="n">
         <v>4</v>
@@ -45171,10 +43967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:44</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44386.66856481481</v>
       </c>
       <c r="I612" t="n">
         <v>2</v>
@@ -45238,10 +44032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:42</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44386.66854166667</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -45317,10 +44109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:42</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44386.66854166667</v>
       </c>
       <c r="I614" t="n">
         <v>1</v>
@@ -45384,10 +44174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:37</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44386.6684837963</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45463,10 +44251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:36</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44386.66847222222</v>
       </c>
       <c r="I616" t="n">
         <v>249</v>
@@ -45538,10 +44324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:34</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44386.66844907407</v>
       </c>
       <c r="I617" t="n">
         <v>7</v>
@@ -45613,10 +44397,8 @@
           <t>4873316023</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:33</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44386.6684375</v>
       </c>
       <c r="I618" t="n">
         <v>47</v>
@@ -45680,10 +44462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:30</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44386.66840277778</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45755,10 +44535,8 @@
           <t>4873315931</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:30</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44386.66840277778</v>
       </c>
       <c r="I620" t="n">
         <v>3</v>
@@ -45826,10 +44604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:29</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44386.6683912037</v>
       </c>
       <c r="I621" t="n">
         <v>615</v>
@@ -45907,10 +44683,8 @@
           <t>4873311322</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:29</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44386.6683912037</v>
       </c>
       <c r="I622" t="n">
         <v>1</v>
@@ -45979,10 +44753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:17</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44386.66825231481</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -46058,10 +44830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:14</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44386.6682175926</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46133,10 +44903,8 @@
           <t>4873294994</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:12</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44386.66819444444</v>
       </c>
       <c r="I625" t="n">
         <v>21</v>
@@ -46208,10 +44976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:10</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44386.6681712963</v>
       </c>
       <c r="I626" t="n">
         <v>4</v>
@@ -46283,10 +45049,8 @@
           <t>4873305951</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:10</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44386.6681712963</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46362,10 +45126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:02:06</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44386.668125</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46441,10 +45203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:59</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44386.66804398148</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46520,10 +45280,8 @@
           <t>4873304887</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:57</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44386.66802083333</v>
       </c>
       <c r="I630" t="n">
         <v>1</v>
@@ -46596,10 +45354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:56</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44386.66800925926</v>
       </c>
       <c r="I631" t="n">
         <v>3</v>
@@ -46675,10 +45431,8 @@
           <t>4873305081</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:42</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44386.66784722222</v>
       </c>
       <c r="I632" t="n">
         <v>2</v>
@@ -46746,10 +45500,8 @@
           <t>4873294994</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:39</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44386.6678125</v>
       </c>
       <c r="I633" t="n">
         <v>147</v>
@@ -46817,10 +45569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:37</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44386.66778935185</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46896,10 +45646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:32</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44386.66773148148</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46975,10 +45723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:20</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44386.6675925926</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -47060,10 +45806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:15</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44386.66753472222</v>
       </c>
       <c r="I637" t="n">
         <v>243</v>
@@ -47131,10 +45875,8 @@
           <t>4873299088</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:15</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44386.66753472222</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -47210,10 +45952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:14</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44386.66752314815</v>
       </c>
       <c r="I639" t="n">
         <v>18</v>
@@ -47281,10 +46021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:13</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44386.66751157407</v>
       </c>
       <c r="I640" t="n">
         <v>4</v>
@@ -47356,10 +46094,8 @@
           <t>4873294189</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:12</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44386.6675</v>
       </c>
       <c r="I641" t="n">
         <v>6</v>
@@ -47436,10 +46172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:07</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44386.66744212963</v>
       </c>
       <c r="I642" t="n">
         <v>3</v>
@@ -47507,10 +46241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:05</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44386.66741898148</v>
       </c>
       <c r="I643" t="n">
         <v>9</v>
@@ -47578,10 +46310,8 @@
           <t>4873303269</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:05</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44386.66741898148</v>
       </c>
       <c r="I644" t="n">
         <v>31</v>
@@ -47641,10 +46371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:01:01</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44386.66737268519</v>
       </c>
       <c r="I645" t="n">
         <v>3</v>
@@ -47720,10 +46448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:58</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44386.66733796296</v>
       </c>
       <c r="I646" t="n">
         <v>5</v>
@@ -47783,10 +46509,8 @@
           <t>4873293746</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:58</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44386.66733796296</v>
       </c>
       <c r="I647" t="n">
         <v>2</v>
@@ -47854,10 +46578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:55</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44386.66730324074</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -47917,10 +46639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:52</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44386.66726851852</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -47992,10 +46712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:52</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44386.66726851852</v>
       </c>
       <c r="I650" t="n">
         <v>1</v>
@@ -48066,10 +46784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:52</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44386.66726851852</v>
       </c>
       <c r="I651" t="n">
         <v>12</v>
@@ -48138,10 +46854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:51</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44386.66725694444</v>
       </c>
       <c r="I652" t="n">
         <v>2111</v>
@@ -48217,10 +46931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:51</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44386.66725694444</v>
       </c>
       <c r="I653" t="n">
         <v>19</v>
@@ -48292,10 +47004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:50</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44386.66724537037</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48363,10 +47073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:47</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44386.66721064815</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48434,10 +47142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:46</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44386.66719907407</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48513,10 +47219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:45</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44386.6671875</v>
       </c>
       <c r="I657" t="n">
         <v>10</v>
@@ -48581,10 +47285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:44</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44386.66717592593</v>
       </c>
       <c r="I658" t="n">
         <v>112</v>
@@ -48644,10 +47346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:42</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44386.66715277778</v>
       </c>
       <c r="I659" t="n">
         <v>1190</v>
@@ -48719,10 +47419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:40</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44386.66712962963</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -48786,10 +47484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:37</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44386.66709490741</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -48855,10 +47551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:35</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44386.66707175926</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -48922,10 +47616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:34</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44386.66706018519</v>
       </c>
       <c r="I663" t="n">
         <v>3</v>
@@ -48993,10 +47685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:31</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44386.66702546296</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -49064,10 +47754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:31</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44386.66702546296</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -49139,10 +47827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:29</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44386.66700231482</v>
       </c>
       <c r="I666" t="n">
         <v>1</v>
@@ -49206,10 +47892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:27</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44386.66697916666</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -49273,10 +47957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:27</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44386.66697916666</v>
       </c>
       <c r="I668" t="n">
         <v>1</v>
@@ -49348,10 +48030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:26</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44386.6669675926</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49415,10 +48095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:22</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44386.6669212963</v>
       </c>
       <c r="I670" t="n">
         <v>6</v>
@@ -49490,10 +48168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:18</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44386.666875</v>
       </c>
       <c r="I671" t="n">
         <v>119</v>
@@ -49585,10 +48261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:00:16</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44386.66685185185</v>
       </c>
       <c r="I672" t="n">
         <v>150</v>
